--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CIBCCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CIBCCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>CIBCCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5590.670992454656</v>
       </c>
       <c r="C2" t="n">
-        <v>528.3330910087682</v>
+        <v>4966.147852584497</v>
       </c>
       <c r="D2" t="n">
-        <v>496.6322591733371</v>
-      </c>
-      <c r="E2" t="n">
-        <v>560.0339228441992</v>
+        <v>6215.194132324815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5749.58210150661</v>
       </c>
       <c r="C3" t="n">
-        <v>560.795517061273</v>
+        <v>4811.184597622976</v>
       </c>
       <c r="D3" t="n">
-        <v>514.8585111781855</v>
-      </c>
-      <c r="E3" t="n">
-        <v>606.7325229443605</v>
+        <v>6687.979605390245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5715.290154595544</v>
       </c>
       <c r="C4" t="n">
-        <v>561.0798989265841</v>
+        <v>4530.310577181335</v>
       </c>
       <c r="D4" t="n">
-        <v>505.3534095394284</v>
-      </c>
-      <c r="E4" t="n">
-        <v>616.8063883137397</v>
+        <v>6900.269732009752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5676.586322242663</v>
       </c>
       <c r="C5" t="n">
-        <v>561.6675205279905</v>
+        <v>4284.439539997107</v>
       </c>
       <c r="D5" t="n">
-        <v>498.40934979945024</v>
-      </c>
-      <c r="E5" t="n">
-        <v>624.9256912565309</v>
+        <v>7068.733104488219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5723.737064789245</v>
       </c>
       <c r="C6" t="n">
-        <v>522.9284242453425</v>
+        <v>4150.479323593871</v>
       </c>
       <c r="D6" t="n">
-        <v>453.5848180242585</v>
-      </c>
-      <c r="E6" t="n">
-        <v>592.2720304664265</v>
+        <v>7296.994805984618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5888.7769200716575</v>
       </c>
       <c r="C7" t="n">
-        <v>555.9754868457563</v>
+        <v>4152.926018469574</v>
       </c>
       <c r="D7" t="n">
-        <v>481.5769523888266</v>
-      </c>
-      <c r="E7" t="n">
-        <v>630.3740213026861</v>
+        <v>7624.627821673741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5856.358276107775</v>
       </c>
       <c r="C8" t="n">
-        <v>556.8146413184779</v>
+        <v>3971.8122278580795</v>
       </c>
       <c r="D8" t="n">
-        <v>478.14182379491666</v>
-      </c>
-      <c r="E8" t="n">
-        <v>635.4874588420392</v>
+        <v>7740.9043243574715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5818.227034591579</v>
       </c>
       <c r="C9" t="n">
-        <v>557.9286970729215</v>
+        <v>3795.867010436886</v>
       </c>
       <c r="D9" t="n">
-        <v>475.5967600519333</v>
-      </c>
-      <c r="E9" t="n">
-        <v>640.2606340939097</v>
+        <v>7840.5870587462705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5865.552794354008</v>
       </c>
       <c r="C10" t="n">
-        <v>519.6891440513899</v>
+        <v>3714.182514010921</v>
       </c>
       <c r="D10" t="n">
-        <v>434.1962601547761</v>
-      </c>
-      <c r="E10" t="n">
-        <v>605.1820279480037</v>
+        <v>8016.923074697096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6030.64614512374</v>
       </c>
       <c r="C11" t="n">
-        <v>553.2102326402149</v>
+        <v>3757.574086621233</v>
       </c>
       <c r="D11" t="n">
-        <v>464.96791248137464</v>
-      </c>
-      <c r="E11" t="n">
-        <v>641.4525527990552</v>
+        <v>8303.718203626247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5998.243852506493</v>
       </c>
       <c r="C12" t="n">
-        <v>554.4991992817305</v>
+        <v>3609.6623327727557</v>
       </c>
       <c r="D12" t="n">
-        <v>463.8524838919661</v>
-      </c>
-      <c r="E12" t="n">
-        <v>645.145914671495</v>
+        <v>8386.825372240231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5960.117608917228</v>
       </c>
       <c r="C13" t="n">
-        <v>556.0400902564821</v>
+        <v>3461.3604053583226</v>
       </c>
       <c r="D13" t="n">
-        <v>463.2816557575836</v>
-      </c>
-      <c r="E13" t="n">
-        <v>648.7985247553806</v>
+        <v>8458.874812476133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6007.444896338154</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2055691970332</v>
+        <v>3403.168856717279</v>
       </c>
       <c r="D14" t="n">
-        <v>423.58596029110254</v>
-      </c>
-      <c r="E14" t="n">
-        <v>612.825178102964</v>
+        <v>8611.72093595903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6172.538714049582</v>
       </c>
       <c r="C15" t="n">
-        <v>552.1110002264616</v>
+        <v>3466.8558256081506</v>
       </c>
       <c r="D15" t="n">
-        <v>455.84628638304486</v>
-      </c>
-      <c r="E15" t="n">
-        <v>648.3757140698782</v>
+        <v>8878.221602491014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6140.136564157001</v>
       </c>
       <c r="C16" t="n">
-        <v>553.7646766328294</v>
+        <v>3336.712565240347</v>
       </c>
       <c r="D16" t="n">
-        <v>456.0423264304902</v>
-      </c>
-      <c r="E16" t="n">
-        <v>651.4870268351685</v>
+        <v>8943.560563073657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6102.010364192734</v>
       </c>
       <c r="C17" t="n">
-        <v>555.6516475574555</v>
+        <v>3204.1400514427464</v>
       </c>
       <c r="D17" t="n">
-        <v>456.6351316281921</v>
-      </c>
-      <c r="E17" t="n">
-        <v>654.6681634867189</v>
+        <v>8999.880676942721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6149.337664948008</v>
       </c>
       <c r="C18" t="n">
-        <v>518.1455282663378</v>
+        <v>3160.0035278117193</v>
       </c>
       <c r="D18" t="n">
-        <v>417.97799043620176</v>
-      </c>
-      <c r="E18" t="n">
-        <v>618.3130660964738</v>
+        <v>9138.671802084298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6314.431486735192</v>
       </c>
       <c r="C19" t="n">
-        <v>552.362585905404</v>
+        <v>3236.3501333552313</v>
       </c>
       <c r="D19" t="n">
-        <v>451.1698155342646</v>
-      </c>
-      <c r="E19" t="n">
-        <v>653.5553562765433</v>
+        <v>9392.512840115154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6282.0293380884</v>
       </c>
       <c r="C20" t="n">
-        <v>554.3119706580695</v>
+        <v>3117.6887981338205</v>
       </c>
       <c r="D20" t="n">
-        <v>452.2048403716652</v>
-      </c>
-      <c r="E20" t="n">
-        <v>656.4191009444738</v>
+        <v>9446.369878042982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6243.903138504918</v>
       </c>
       <c r="C21" t="n">
-        <v>556.4795447897571</v>
+        <v>2995.5932260065624</v>
       </c>
       <c r="D21" t="n">
-        <v>453.5560320402973</v>
-      </c>
-      <c r="E21" t="n">
-        <v>659.403057539217</v>
+        <v>9492.213051003273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6291.2304393765835</v>
       </c>
       <c r="C22" t="n">
-        <v>519.239695155208</v>
+        <v>2961.067752286274</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5865748186066</v>
-      </c>
-      <c r="E22" t="n">
-        <v>622.8928154918093</v>
+        <v>9621.393126466894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6456.324261199343</v>
       </c>
       <c r="C23" t="n">
-        <v>553.7094210754092</v>
+        <v>3046.2729775164016</v>
       </c>
       <c r="D23" t="n">
-        <v>449.40369448514963</v>
-      </c>
-      <c r="E23" t="n">
-        <v>658.0151476656687</v>
+        <v>9866.375544882285</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6423.922112563425</v>
       </c>
       <c r="C24" t="n">
-        <v>555.8985675084494</v>
+        <v>2935.8114502981743</v>
       </c>
       <c r="D24" t="n">
-        <v>451.00867778124075</v>
-      </c>
-      <c r="E24" t="n">
-        <v>660.7884572356581</v>
+        <v>9912.032774828676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6385.795912983267</v>
       </c>
       <c r="C25" t="n">
-        <v>558.293656004496</v>
+        <v>2821.334912064628</v>
       </c>
       <c r="D25" t="n">
-        <v>452.88052822680015</v>
-      </c>
-      <c r="E25" t="n">
-        <v>663.7067837821919</v>
+        <v>9950.256913901905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6433.123213855947</v>
       </c>
       <c r="C26" t="n">
-        <v>521.2696990259744</v>
+        <v>2793.913346050652</v>
       </c>
       <c r="D26" t="n">
-        <v>415.38763553910024</v>
-      </c>
-      <c r="E26" t="n">
-        <v>627.1517625128486</v>
+        <v>10072.333081661243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6598.217035679018</v>
       </c>
       <c r="C27" t="n">
-        <v>555.9442895447601</v>
+        <v>2885.7630363959265</v>
       </c>
       <c r="D27" t="n">
-        <v>449.64174432244556</v>
-      </c>
-      <c r="E27" t="n">
-        <v>662.2468347670746</v>
+        <v>10310.67103496211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6565.814887043195</v>
       </c>
       <c r="C28" t="n">
-        <v>558.3278358454263</v>
+        <v>2781.5341189639253</v>
       </c>
       <c r="D28" t="n">
-        <v>451.64808721363136</v>
-      </c>
-      <c r="E28" t="n">
-        <v>665.0075844772213</v>
+        <v>10350.095655122466</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6527.688687463066</v>
       </c>
       <c r="C29" t="n">
-        <v>560.9073940292282</v>
+        <v>2672.9192823603125</v>
       </c>
       <c r="D29" t="n">
-        <v>453.88913132723303</v>
-      </c>
-      <c r="E29" t="n">
-        <v>667.9256567312233</v>
+        <v>10382.45809256582</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6575.0159883357555</v>
       </c>
       <c r="C30" t="n">
-        <v>524.0584838041642</v>
+        <v>2651.023964722833</v>
       </c>
       <c r="D30" t="n">
-        <v>416.7363207440562</v>
-      </c>
-      <c r="E30" t="n">
-        <v>631.3806468642722</v>
+        <v>10499.00801194868</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6740.109810158829</v>
       </c>
       <c r="C31" t="n">
-        <v>558.8991794769669</v>
+        <v>2748.095326688178</v>
       </c>
       <c r="D31" t="n">
-        <v>451.30410472218495</v>
-      </c>
-      <c r="E31" t="n">
-        <v>666.4942542317488</v>
+        <v>10732.12429362948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6707.707661523006</v>
       </c>
       <c r="C32" t="n">
-        <v>561.4403460799011</v>
+        <v>2648.8105365516117</v>
       </c>
       <c r="D32" t="n">
-        <v>453.6001197860367</v>
-      </c>
-      <c r="E32" t="n">
-        <v>669.2805723737656</v>
+        <v>10766.604786494401</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6669.581461942878</v>
       </c>
       <c r="C33" t="n">
-        <v>564.1694731306901</v>
+        <v>2544.8860664060544</v>
       </c>
       <c r="D33" t="n">
-        <v>456.1089767659026</v>
-      </c>
-      <c r="E33" t="n">
-        <v>672.2299694954776</v>
+        <v>10794.276857479701</v>
       </c>
     </row>
   </sheetData>
